--- a/lab6/Работа 6 задание 1.xlsx
+++ b/lab6/Работа 6 задание 1.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\MUCTR\MUCTR-Chemestry\lab6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\MUCTR\MUCTR-Chemestry\lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A37970-261A-45D6-A9BC-781D03966278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,13 +176,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -209,7 +216,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -393,7 +399,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -512,7 +517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -643,7 +647,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -831,7 +834,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -950,7 +952,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1081,7 +1082,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1269,7 +1269,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1388,7 +1387,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1549,7 +1547,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1827,7 +1824,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1946,7 +1942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4303,7 +4298,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4333,7 +4334,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4363,7 +4370,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4393,7 +4406,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4673,11 +4692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,189 +4705,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>43200</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>1.5*$B$2-0.5*B2</f>
         <v>43200</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>C2/(8.3144*$B$9)</f>
         <v>6.2225208007923349</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>LN(D2)</f>
         <v>1.8281750980892715</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>1/D2</f>
         <v>0.16070657407407407</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>80</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>53000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C8" si="0">1.5*$B$2-0.5*B3</f>
         <v>38300</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D8" si="1">C3/(8.3144*$B$9)</f>
         <v>5.5167256173691301</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E8" si="2">LN(D3)</f>
         <v>1.7077844990258071</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F8" si="3">1/D3</f>
         <v>0.18126694516971278</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>160</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>61600</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>4.8973543339569305</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>1.5886951274553682</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="3"/>
         <v>0.20419188235294114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>240</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>69300</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>30150</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>4.3428009755529837</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" si="2"/>
         <v>1.4685195260124013</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="3"/>
         <v>0.23026613598673298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>420</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>83600</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>3.3129161670885114</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="2"/>
         <v>1.1978288187683563</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="3"/>
         <v>0.30184886956521739</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>500</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>88800</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>20400</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>2.938412600374158</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
         <v>1.0778695036893775</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="3"/>
         <v>0.34031980392156863</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>600</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>94500</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>17550</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>2.5278990753218862</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="2"/>
         <v>0.92738855275108167</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="3"/>
         <v>0.39558541310541306</v>
       </c>
@@ -4890,68 +4909,68 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>43200</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4995,10 +5014,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -5023,123 +5042,123 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>0</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>$D$2*EXP((-$B$18)*A26)</f>
         <v>6.2225208007923349</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f>$D$2-B26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <f>A26+100</f>
         <v>100</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f t="shared" ref="B27:B33" si="4">$D$2*EXP((-$B$18)*A27)</f>
         <v>5.3557732867128012</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" ref="C27:C33" si="5">$D$2-B27</f>
         <v>0.86674751407953377</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <f t="shared" ref="A28:A33" si="6">A27+100</f>
         <v>200</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f t="shared" si="4"/>
         <v>4.6097567877979557</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="5"/>
         <v>1.6127640129943792</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f t="shared" si="4"/>
         <v>3.9676544366372535</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="5"/>
         <v>2.2548663641550815</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <f t="shared" si="4"/>
         <v>3.4149918213119528</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" si="5"/>
         <v>2.8075289794803822</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <f t="shared" si="4"/>
         <v>2.9393107000295333</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="5"/>
         <v>3.2832101007628016</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <f t="shared" si="4"/>
         <v>2.5298881647069398</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="5"/>
         <v>3.6926326360853952</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <f t="shared" si="6"/>
         <v>700</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <f t="shared" si="4"/>
         <v>2.1774949228266136</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f t="shared" si="5"/>
         <v>4.0450258779657213</v>
       </c>
